--- a/doc/资产管理平台设计.xlsx
+++ b/doc/资产管理平台设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="9900"/>
+    <workbookView windowWidth="20340" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字典" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="361">
   <si>
     <t>字典代码</t>
   </si>
@@ -301,7 +301,7 @@
     <t>产品名称</t>
   </si>
   <si>
-    <t>params</t>
+    <t>param</t>
   </si>
   <si>
     <t>text</t>
@@ -421,6 +421,9 @@
     <t>接收人</t>
   </si>
   <si>
+    <t>recvTime</t>
+  </si>
+  <si>
     <t>接收时间</t>
   </si>
   <si>
@@ -463,15 +466,30 @@
     <t>资产说明</t>
   </si>
   <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>归属部门</t>
+  </si>
+  <si>
+    <t>use_user_id</t>
+  </si>
+  <si>
+    <t>当前使用人</t>
+  </si>
+  <si>
+    <t>finish_time</t>
+  </si>
+  <si>
+    <t>归还时间</t>
+  </si>
+  <si>
     <t>scrapTime</t>
   </si>
   <si>
     <t>报废时间</t>
   </si>
   <si>
-    <t>预计归还时间</t>
-  </si>
-  <si>
     <t>asset_use</t>
   </si>
   <si>
@@ -502,9 +520,6 @@
     <t>revertTime</t>
   </si>
   <si>
-    <t>归还时间</t>
-  </si>
-  <si>
     <t>asset_aptitude</t>
   </si>
   <si>
@@ -556,9 +571,21 @@
     <t>耗材ID</t>
   </si>
   <si>
+    <t>applyUserId</t>
+  </si>
+  <si>
+    <t>申请人ID</t>
+  </si>
+  <si>
     <t>领用数量</t>
   </si>
   <si>
+    <t>is_delivery</t>
+  </si>
+  <si>
+    <t>是否出库</t>
+  </si>
+  <si>
     <t>asset_delivery</t>
   </si>
   <si>
@@ -833,9 +860,6 @@
   </si>
   <si>
     <t>查询语句</t>
-  </si>
-  <si>
-    <t>param</t>
   </si>
   <si>
     <t>参数条件</t>
@@ -1115,16 +1139,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,8 +1183,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,101 +1276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,7 +1298,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,31 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,61 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,13 +1376,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,13 +1454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,19 +1466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,11 +1538,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,21 +1593,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,23 +1630,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1619,10 +1643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1631,133 +1655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2160,7 +2184,7 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2338,10 +2362,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV228"/>
+  <dimension ref="A1:IV232"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3570,7 +3594,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>83</v>
@@ -3581,7 +3605,7 @@
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H60" s="5"/>
     </row>
@@ -3590,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>58</v>
@@ -3603,7 +3627,7 @@
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H61" s="5"/>
     </row>
@@ -3612,7 +3636,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>54</v>
@@ -3625,7 +3649,7 @@
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3719,12 +3743,12 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3782,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>54</v>
@@ -3795,7 +3819,7 @@
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H71" s="5"/>
     </row>
@@ -3837,7 +3861,7 @@
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H73" s="5"/>
     </row>
@@ -3890,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>102</v>
@@ -3901,7 +3925,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -3975,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>58</v>
@@ -3988,7 +4012,7 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4009,50 +4033,49 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="5">
         <v>13</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D82" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D83" s="5">
+        <v>11</v>
+      </c>
       <c r="E83" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4060,7 +4083,7 @@
         <v>15</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>83</v>
@@ -4071,28 +4094,31 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="5">
         <v>16</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D85" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>81</v>
+        <v>13</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4100,18 +4126,18 @@
         <v>17</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4119,7 +4145,7 @@
         <v>18</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>54</v>
@@ -4132,7 +4158,7 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4140,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>83</v>
@@ -4151,231 +4177,231 @@
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="5">
+        <v>20</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="5">
+        <v>50</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="5">
+        <v>21</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="13" t="s">
+    <row r="91" spans="1:7">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D93" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E93" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F93" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G93" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="5">
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="5">
         <v>1</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D94" s="5">
         <v>11</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="5">
-        <v>2</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="5">
-        <v>3</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="5">
-        <v>200</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="5">
-        <v>200</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D96" s="5">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D97" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D98" s="5">
+        <v>11</v>
+      </c>
       <c r="E98" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D99" s="5">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>83</v>
@@ -4386,141 +4412,141 @@
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D101" s="5">
+        <v>200</v>
+      </c>
       <c r="E101" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" s="5">
-        <v>11</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="5">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D104" s="5">
+        <v>11</v>
+      </c>
       <c r="E104" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>163</v>
+      </c>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D105" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F105" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G105" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>54</v>
@@ -4533,15 +4559,15 @@
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>83</v>
@@ -4552,129 +4578,125 @@
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="5">
+        <v>16</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="5">
+        <v>50</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="5">
+        <v>17</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="5"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="13" t="s">
+    <row r="111" spans="1:7">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B113" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C113" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D113" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E113" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F113" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G113" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H111" s="5"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="5">
-        <v>1</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D112" s="5">
-        <v>200</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H112" s="5"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D113" s="5">
-        <v>11</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D114" s="5">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="5">
-        <v>3</v>
-      </c>
+      <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="D115" s="5">
         <v>11</v>
@@ -4684,77 +4706,81 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D116" s="5">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="D117" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D118" s="5">
+        <v>200</v>
+      </c>
       <c r="E118" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>54</v>
@@ -4767,15 +4793,15 @@
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>83</v>
@@ -4786,117 +4812,115 @@
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="5">
+        <v>7</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="5">
+        <v>50</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="5">
+        <v>8</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="5"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="13" t="s">
+    <row r="124" spans="1:8">
+      <c r="A124" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B125" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C125" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E125" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F125" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G125" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="5">
-        <v>1</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D124" s="5">
-        <v>11</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H124" s="5"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="5">
-        <v>2</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="5">
-        <v>200</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D126" s="5">
+        <v>11</v>
+      </c>
       <c r="E126" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="5">
-        <v>4</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>54</v>
@@ -4905,106 +4929,106 @@
         <v>200</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H127" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="5">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D128" s="5">
-        <v>200</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H128" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="H128" s="5"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D129" s="1">
-        <v>10</v>
+      <c r="D129" s="5">
+        <v>200</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D130" s="5">
+        <v>200</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="5">
-        <v>8</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
+      </c>
+      <c r="D131" s="1">
+        <v>10</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="1:7">
+        <v>177</v>
+      </c>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="5">
-        <v>9</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>107</v>
+        <v>7</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>102</v>
@@ -5012,127 +5036,129 @@
       <c r="D132" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="5">
-        <v>10</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="5">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H133" s="5"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" s="5">
-        <v>200</v>
+        <v>102</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="5">
-        <v>12</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D135" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D136" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1</v>
+      </c>
       <c r="E137" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>54</v>
@@ -5145,15 +5171,15 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>83</v>
@@ -5164,450 +5190,449 @@
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="5">
+        <v>15</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="5">
+        <v>50</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="5">
+        <v>16</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="13" t="s">
+    <row r="143" spans="1:8">
+      <c r="A143" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B144" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C144" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D144" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="E144" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F142" s="13" t="s">
+      <c r="F144" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G142" s="13" t="s">
+      <c r="G144" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="5">
-        <v>1</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D143" s="5">
-        <v>11</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="5">
-        <v>2</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D144" s="5">
-        <v>11</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="D145" s="5">
+        <v>11</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D146" s="5">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>183</v>
+      </c>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D147" s="5">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>185</v>
+      </c>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D148" s="5">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D149" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D150" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D150" s="5">
+        <v>200</v>
+      </c>
       <c r="E150" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D151" s="5">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D152" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D154" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="5">
+        <v>11</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D155" s="5">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="5">
+        <v>12</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" s="5">
+        <v>50</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="5">
         <v>13</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B157" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="5">
+        <v>14</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="5">
+        <v>50</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="5">
+        <v>15</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E158" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H158" s="5"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="5">
-        <v>1</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D159" s="5">
-        <v>11</v>
-      </c>
+      <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H159" s="5"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="5">
-        <v>2</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D160" s="5">
-        <v>11</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H160" s="5"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="5">
-        <v>3</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D161" s="5">
-        <v>11</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A161" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="5">
-        <v>4</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5" t="s">
-        <v>182</v>
+      <c r="A162" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="H162" s="5"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="5">
-        <v>5</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>58</v>
@@ -5616,20 +5641,20 @@
         <v>11</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H163" s="5"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>58</v>
@@ -5642,16 +5667,16 @@
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="5">
-        <v>7</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>58</v>
@@ -5664,585 +5689,580 @@
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" s="5">
-        <v>8</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" s="5">
-        <v>50</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>191</v>
+      </c>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="5">
-        <v>9</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D167" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D167" s="5">
+        <v>11</v>
+      </c>
       <c r="E167" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D168" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>133</v>
+      </c>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="5">
+        <v>7</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169" s="5">
         <v>11</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="5"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E172" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="5">
+        <v>8</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" s="5">
         <v>50</v>
       </c>
-      <c r="F172" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H172" s="5"/>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="E170" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="5">
+        <v>9</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="5">
+        <v>10</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" s="5">
+        <v>50</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D173" s="5">
-        <v>11</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D173" s="5"/>
       <c r="E173" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H173" s="5"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="5">
-        <v>2</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D174" s="5">
-        <v>11</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H174" s="5"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="5">
-        <v>3</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D175" s="5">
-        <v>11</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A175" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
       <c r="H175" s="5"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="5">
-        <v>4</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D176" s="1">
-        <v>1</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F176" s="5">
-        <v>1</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A176" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H176" s="5"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="5">
-        <v>5</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="D177" s="5">
+        <v>11</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H177" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H177" s="5"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="D178" s="5">
+        <v>11</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8">
       <c r="A179" s="5">
-        <v>7</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D179" s="5">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>163</v>
+      </c>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="5">
-        <v>8</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D180" s="5">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F180" s="5"/>
+      <c r="F180" s="5">
+        <v>1</v>
+      </c>
       <c r="G180" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="5">
-        <v>9</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>153</v>
+        <v>5</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E181" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>195</v>
+      </c>
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D182" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E182" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5" t="s">
-        <v>122</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H182" s="5"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D183" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D184" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F184" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="F184" s="5"/>
       <c r="G184" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D186" s="5">
-        <v>50</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D186" s="5"/>
       <c r="E186" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D187" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D187" s="5">
+        <v>50</v>
+      </c>
       <c r="E187" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="5"/>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E190" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="5">
+        <v>12</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D188" s="5">
+        <v>1</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="5">
+        <v>13</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="5">
+        <v>14</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" s="5">
         <v>50</v>
       </c>
-      <c r="F190" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H190" s="5"/>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="E190" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D191" s="5">
-        <v>11</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D191" s="5"/>
       <c r="E191" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H191" s="5"/>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="5">
-        <v>2</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D192" s="5">
-        <v>11</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H192" s="5"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="5">
-        <v>3</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D193" s="1">
-        <v>1</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F193" s="5">
-        <v>1</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="5">
-        <v>4</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D194" s="5">
-        <v>200</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5" t="s">
-        <v>191</v>
-      </c>
+      <c r="A193" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H194" s="5"/>
     </row>
     <row r="195" s="14" customFormat="1" spans="1:256">
       <c r="A195" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>58</v>
@@ -6251,13 +6271,13 @@
         <v>11</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H195" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H195" s="5"/>
       <c r="I195" s="15"/>
       <c r="J195" s="15"/>
       <c r="K195" s="15"/>
@@ -6509,47 +6529,51 @@
     </row>
     <row r="196" s="15" customFormat="1" spans="1:8">
       <c r="A196" s="5">
-        <v>6</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D196" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H196" s="5"/>
     </row>
     <row r="197" s="14" customFormat="1" spans="1:256">
       <c r="A197" s="5">
-        <v>7</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D197" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
       <c r="E197" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F197" s="5"/>
+      <c r="F197" s="5">
+        <v>1</v>
+      </c>
       <c r="G197" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H197" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I197" s="15"/>
       <c r="J197" s="15"/>
       <c r="K197" s="15"/>
@@ -6801,10 +6825,10 @@
     </row>
     <row r="198" s="14" customFormat="1" spans="1:256">
       <c r="A198" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>54</v>
@@ -6813,11 +6837,11 @@
         <v>200</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="H198" s="1"/>
       <c r="I198" s="15"/>
@@ -7071,10 +7095,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>58</v>
@@ -7087,34 +7111,39 @@
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D200" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
       <c r="E200" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5" t="s">
-        <v>154</v>
+        <v>115</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>83</v>
@@ -7125,87 +7154,79 @@
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D202" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D203" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="F203" s="5"/>
       <c r="G203" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>193</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D204" s="5"/>
       <c r="E204" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H204" s="2"/>
-    </row>
-    <row r="205" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5" t="s">
@@ -7213,271 +7234,269 @@
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H205" s="2"/>
-    </row>
-    <row r="206" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D206" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D207" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1</v>
+      </c>
       <c r="E207" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F207" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G207" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D208" s="5">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="5"/>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D212" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E212" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="5">
+        <v>16</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D210" s="5">
+        <v>1</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="5">
+        <v>17</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="5">
+        <v>18</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" s="5">
         <v>50</v>
       </c>
-      <c r="F212" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G212" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H212" s="5"/>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="E212" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D213" s="5">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D213" s="5"/>
       <c r="E213" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H213" s="5"/>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="5">
-        <v>2</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H214" s="5"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="5">
-        <v>3</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D215" s="5">
-        <v>11</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="A215" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
       <c r="H215" s="5"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="5">
-        <v>4</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H216" s="2"/>
+      <c r="A216" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H216" s="5"/>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="5">
-        <v>5</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>208</v>
+        <v>1</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D217" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F217" s="5">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F217" s="5"/>
       <c r="G217" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H217" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="H217" s="5"/>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H218" s="2"/>
-    </row>
-    <row r="219" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="5">
-        <v>7</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>58</v>
@@ -7490,36 +7509,38 @@
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="5">
-        <v>8</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>214</v>
+        <v>4</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D220" s="5">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="5">
-        <v>9</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>216</v>
+        <v>5</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>58</v>
@@ -7530,152 +7551,240 @@
       <c r="E221" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F221" s="5"/>
+      <c r="F221" s="5">
+        <v>1</v>
+      </c>
       <c r="G221" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="5">
-        <v>10</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>218</v>
+        <v>6</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D222" s="5">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F222" s="5">
-        <v>1</v>
-      </c>
+      <c r="F222" s="5"/>
       <c r="G222" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="H222" s="2"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="5">
+        <v>7</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D223" s="5">
         <v>11</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D224" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D224" s="5">
+        <v>11</v>
+      </c>
       <c r="E224" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H224" s="2"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D225" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D226" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D226" s="5">
+        <v>11</v>
+      </c>
       <c r="E226" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F226" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F226" s="5">
+        <v>1</v>
+      </c>
       <c r="G226" s="5" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D227" s="5">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="5">
+        <v>13</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" s="5">
+        <v>50</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="5">
+        <v>14</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="5">
+        <v>15</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" s="5">
+        <v>50</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="5">
+        <v>16</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7691,22 +7800,22 @@
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="D211:G211"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="D215:G215"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7720,7 +7829,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A$1:H$1048576"/>
+      <selection activeCell="A2" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7730,12 +7839,12 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -7784,7 +7893,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -7811,7 +7920,7 @@
         <v>48</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
@@ -7819,7 +7928,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>54</v>
@@ -7832,7 +7941,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -7841,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>54</v>
@@ -7854,7 +7963,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -7863,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>54</v>
@@ -7876,7 +7985,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -7885,7 +7994,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>54</v>
@@ -7898,7 +8007,7 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -7907,7 +8016,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>54</v>
@@ -7920,7 +8029,7 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -7929,7 +8038,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>54</v>
@@ -7942,7 +8051,7 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -7951,7 +8060,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>54</v>
@@ -7964,7 +8073,7 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -8004,12 +8113,12 @@
     </row>
     <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -8058,7 +8167,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8085,7 +8194,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:8">
@@ -8093,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>54</v>
@@ -8106,7 +8215,7 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -8170,12 +8279,12 @@
     </row>
     <row r="22" ht="14.25" spans="1:8">
       <c r="A22" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -8211,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>58</v>
@@ -8224,7 +8333,7 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -8233,7 +8342,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>58</v>
@@ -8246,7 +8355,7 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H25" s="5"/>
     </row>
@@ -8255,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>61</v>
@@ -8270,10 +8379,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:8">
@@ -8281,7 +8390,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>54</v>
@@ -8294,7 +8403,7 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -8303,7 +8412,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>54</v>
@@ -8316,7 +8425,7 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -8325,7 +8434,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>54</v>
@@ -8338,7 +8447,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -8347,7 +8456,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>54</v>
@@ -8360,7 +8469,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -8369,7 +8478,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>83</v>
@@ -8380,7 +8489,7 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -8389,7 +8498,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>58</v>
@@ -8402,7 +8511,7 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H32" s="5"/>
     </row>
@@ -8411,7 +8520,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>54</v>
@@ -8424,7 +8533,7 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H33" s="5"/>
     </row>
@@ -8448,7 +8557,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H34" s="5"/>
     </row>
@@ -8480,12 +8589,12 @@
     </row>
     <row r="37" ht="14.25" spans="1:8">
       <c r="A37" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -8534,7 +8643,7 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -8561,7 +8670,7 @@
         <v>48</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:8">
@@ -8569,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>54</v>
@@ -8582,7 +8691,7 @@
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -8591,7 +8700,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>95</v>
@@ -8602,7 +8711,7 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -8611,7 +8720,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>95</v>
@@ -8622,7 +8731,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H43" s="5"/>
     </row>
@@ -8668,7 +8777,7 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -8698,12 +8807,12 @@
     </row>
     <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="6" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -8752,7 +8861,7 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -8779,7 +8888,7 @@
         <v>48</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:8">
@@ -8787,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>54</v>
@@ -8800,7 +8909,7 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -8809,7 +8918,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>58</v>
@@ -8822,7 +8931,7 @@
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H53" s="5"/>
     </row>
@@ -8831,7 +8940,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>54</v>
@@ -8844,7 +8953,7 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H54" s="5"/>
     </row>
@@ -8853,7 +8962,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>54</v>
@@ -8866,7 +8975,7 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H55" s="5"/>
     </row>
@@ -8912,7 +9021,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H57" s="5"/>
     </row>
@@ -8978,13 +9087,13 @@
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -8992,13 +9101,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9007,10 +9116,10 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9019,10 +9128,10 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="28.5" spans="1:4">
@@ -9030,13 +9139,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9045,10 +9154,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="28.5" spans="1:4">
@@ -9057,10 +9166,10 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:4">
@@ -9069,10 +9178,10 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -9081,10 +9190,10 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -9093,10 +9202,10 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -9105,10 +9214,10 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:4">
@@ -9116,13 +9225,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:4">
@@ -9131,10 +9240,10 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:4">
@@ -9143,10 +9252,10 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:4">
@@ -9155,10 +9264,10 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:4">
@@ -9166,13 +9275,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:4">
@@ -9181,10 +9290,10 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:4">
@@ -9193,10 +9302,10 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:4">
@@ -9204,13 +9313,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:4">
@@ -9219,10 +9328,10 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:4">
@@ -9231,10 +9340,10 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="11" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:4">
@@ -9243,10 +9352,10 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:4">
@@ -9255,10 +9364,10 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:4">
@@ -9266,13 +9375,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:4">
@@ -9281,10 +9390,10 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:4">
@@ -9293,10 +9402,10 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
@@ -9304,13 +9413,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
@@ -9319,10 +9428,10 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:4">
@@ -9331,10 +9440,10 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
@@ -9343,10 +9452,10 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="12" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
@@ -9355,10 +9464,10 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="12" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
@@ -9367,10 +9476,10 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="12" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
@@ -9379,10 +9488,10 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="12" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
@@ -9391,10 +9500,10 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="12" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
@@ -9403,10 +9512,10 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="12" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/doc/资产管理平台设计.xlsx
+++ b/doc/资产管理平台设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="9900" activeTab="1"/>
+    <workbookView windowWidth="20340" windowHeight="10680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="字典" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="365">
   <si>
     <t>字典代码</t>
   </si>
@@ -715,6 +715,15 @@
     <t>盘点说明</t>
   </si>
   <si>
+    <t>asset_taking</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>当前使用部门</t>
+  </si>
+  <si>
     <t>xdata_client</t>
   </si>
   <si>
@@ -937,10 +946,10 @@
     <t>耗材管理</t>
   </si>
   <si>
-    <t>管理耗材信息，信息包括：所属分类、耗材名称、耗材型号、所在仓库、计量单位、当前数量、总价值等</t>
-  </si>
-  <si>
-    <t>管理资产信息，信息包括：所属分类、编号、所在仓库、采购订单号、厂商、购买渠道、市场价格、购买价格、当前价值、购买时间、当前状态、资产负责人、所属部门、当前使用人，报废时间、报废原因等</t>
+    <t>管理耗材信息，信息包括：所属分类、耗材名称、耗材型号、所在仓库、计量单位、当前数量、总价值等；在编辑耗材信息时，可自动生成盘点记录。</t>
+  </si>
+  <si>
+    <t>管理资产信息，信息包括：所属分类、编号、所在仓库、采购订单号、厂商、购买渠道、市场价格、购买价格、当前价值、购买时间、当前状态、资产负责人、所属部门、当前使用人，报废时间、报废原因等；在编辑资产信息时，可自动生成盘点记录。</t>
   </si>
   <si>
     <t>资产调拨</t>
@@ -949,10 +958,16 @@
     <t>可以批量将资产调拨到其它部门和仓库</t>
   </si>
   <si>
+    <t>可以逐个对资产和耗材进行盘点，形成盘点记录</t>
+  </si>
+  <si>
     <t>管理无形资产信息，信息包括：资产名称、附件材料、获取时间、当前状态、负责人等</t>
   </si>
   <si>
-    <t>确认各资产的当前状况</t>
+    <t>资产统计</t>
+  </si>
+  <si>
+    <t>自动统计当前与去年相比，资产的变动状况</t>
   </si>
   <si>
     <t>采购管理</t>
@@ -1070,9 +1085,6 @@
   </si>
   <si>
     <t>查询各资产的维护记录</t>
-  </si>
-  <si>
-    <t>资产统计</t>
   </si>
   <si>
     <t>以年为单位统计资产总值的变化</t>
@@ -1107,10 +1119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1140,15 +1152,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,6 +1195,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1169,15 +1232,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,21 +1264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1222,47 +1272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,8 +1287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,7 +1310,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,19 +1388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,7 +1424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,115 +1466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,8 +1568,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,41 +1639,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,10 +1655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,19 +1667,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1676,116 +1688,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1832,6 +1844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2362,10 +2377,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV232"/>
+  <dimension ref="A1:IV248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7788,8 +7803,324 @@
         <v>88</v>
       </c>
     </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F235" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G235" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="5">
+        <v>1</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D236" s="5">
+        <v>11</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="5">
+        <v>2</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" s="5">
+        <v>11</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="5">
+        <v>3</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D238" s="5">
+        <v>11</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="5">
+        <v>4</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="5">
+        <v>5</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D240" s="5">
+        <v>11</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="5">
+        <v>6</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" s="5">
+        <v>11</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="5">
+        <v>7</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D242" s="5">
+        <v>11</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="5">
+        <v>8</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D243" s="5">
+        <v>11</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="5">
+        <v>9</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" s="16"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="5">
+        <v>10</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" s="5">
+        <v>50</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="5">
+        <v>11</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="5">
+        <v>12</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" s="5">
+        <v>50</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="5">
+        <v>13</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A9:C9"/>
@@ -7816,6 +8147,8 @@
     <mergeCell ref="D193:G193"/>
     <mergeCell ref="A215:C215"/>
     <mergeCell ref="D215:G215"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="D234:G234"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7839,12 +8172,12 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -7893,7 +8226,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -7920,7 +8253,7 @@
         <v>48</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
@@ -7928,7 +8261,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>54</v>
@@ -7941,7 +8274,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -7950,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>54</v>
@@ -7963,7 +8296,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -7972,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>54</v>
@@ -7985,7 +8318,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -7994,7 +8327,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>54</v>
@@ -8007,7 +8340,7 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -8016,7 +8349,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>54</v>
@@ -8029,7 +8362,7 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -8038,7 +8371,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>54</v>
@@ -8051,7 +8384,7 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -8060,7 +8393,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>54</v>
@@ -8073,7 +8406,7 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -8113,12 +8446,12 @@
     </row>
     <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -8167,7 +8500,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8194,7 +8527,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:8">
@@ -8202,7 +8535,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>54</v>
@@ -8215,7 +8548,7 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -8279,12 +8612,12 @@
     </row>
     <row r="22" ht="14.25" spans="1:8">
       <c r="A22" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -8320,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>58</v>
@@ -8333,7 +8666,7 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -8342,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>58</v>
@@ -8355,7 +8688,7 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H25" s="5"/>
     </row>
@@ -8364,7 +8697,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>61</v>
@@ -8379,10 +8712,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:8">
@@ -8390,7 +8723,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>54</v>
@@ -8403,7 +8736,7 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -8412,7 +8745,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>54</v>
@@ -8425,7 +8758,7 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -8434,7 +8767,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>54</v>
@@ -8447,7 +8780,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -8456,7 +8789,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>54</v>
@@ -8469,7 +8802,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -8478,7 +8811,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>83</v>
@@ -8489,7 +8822,7 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -8498,7 +8831,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>58</v>
@@ -8511,7 +8844,7 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H32" s="5"/>
     </row>
@@ -8520,7 +8853,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>54</v>
@@ -8533,7 +8866,7 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H33" s="5"/>
     </row>
@@ -8557,7 +8890,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H34" s="5"/>
     </row>
@@ -8589,12 +8922,12 @@
     </row>
     <row r="37" ht="14.25" spans="1:8">
       <c r="A37" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -8643,7 +8976,7 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -8670,7 +9003,7 @@
         <v>48</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:8">
@@ -8678,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>54</v>
@@ -8691,7 +9024,7 @@
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -8700,7 +9033,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>95</v>
@@ -8711,7 +9044,7 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -8731,7 +9064,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H43" s="5"/>
     </row>
@@ -8777,7 +9110,7 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -8807,12 +9140,12 @@
     </row>
     <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -8861,7 +9194,7 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -8888,7 +9221,7 @@
         <v>48</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:8">
@@ -8896,7 +9229,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>54</v>
@@ -8909,7 +9242,7 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -8918,7 +9251,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>58</v>
@@ -8931,7 +9264,7 @@
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H53" s="5"/>
     </row>
@@ -8940,7 +9273,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>54</v>
@@ -8953,7 +9286,7 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H54" s="5"/>
     </row>
@@ -8962,7 +9295,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>54</v>
@@ -8975,7 +9308,7 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H55" s="5"/>
     </row>
@@ -9021,7 +9354,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H57" s="5"/>
     </row>
@@ -9070,10 +9403,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9087,13 +9420,13 @@
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9101,13 +9434,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9116,10 +9449,10 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9128,10 +9461,10 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="28.5" spans="1:4">
@@ -9139,13 +9472,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:4">
@@ -9154,10 +9487,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="28.5" spans="1:4">
@@ -9166,10 +9499,10 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:4">
@@ -9178,10 +9511,10 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -9190,343 +9523,353 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:4">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>90</v>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:4">
       <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>317</v>
+      </c>
       <c r="C13" s="11" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:4">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:4">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="5" t="s">
-        <v>318</v>
+      <c r="C15" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:4">
       <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:4">
       <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="C17" s="11" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:4">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:4">
       <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:4">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="5">
+      <c r="D20" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:4">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:4">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="11" t="s">
-        <v>330</v>
+      <c r="C21" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:4">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:4">
       <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>336</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:4">
       <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:4">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="1:4">
       <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>342</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>350</v>
+      <c r="C30" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="12" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:4">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
